--- a/Data Entry/Zooplankton/Zooplankton Collection/NAR Zooplankton Collection Data.xlsx
+++ b/Data Entry/Zooplankton/Zooplankton Collection/NAR Zooplankton Collection Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjf63\Documents\GitHub\triploid-walleye-labwork\Data Entry\Zooplankton\Zooplankton Collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BANGIRAS/Documents/GitHub/triploid-walleye-labwork/Data Entry/Zooplankton/Zooplankton Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10EE47D-E44D-C547-97C4-9E0C04F275C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17800" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,36 +25,45 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Collin Farrell</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-3 Character Waterbody Code + MMDDYY + L (L is code for limnology)</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3 Character Waterbody Code + MMDDYY + L (L is code for limnology)</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +71,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -70,14 +80,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 YYYYMMDD</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +95,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -94,14 +104,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -118,113 +128,177 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sample id on zooplankton sampling data sheet</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-military time</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>military time</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-max depth
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">max depth
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-IF Mesh = 153, WIS
-IF Mesh = 500, SIM</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">IF Mesh = 153, WIS
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>IF Mesh = 500, SIM</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-IF Mesh = 153, 0.2
-IF Mesh = 500, 0.5</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">IF Mesh = 153, 0.2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>IF Mesh = 500, 0.5</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +306,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -241,14 +315,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 153 or 500</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -256,7 +330,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -265,14 +339,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Always A</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +354,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -289,7 +363,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 If Dilution (ml) = ---, NA
@@ -297,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +379,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -314,7 +388,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Always ZEISS</t>
@@ -326,7 +400,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
   <si>
     <t>limnoid</t>
   </si>
@@ -386,13 +460,82 @@
   </si>
   <si>
     <t>ZEISS</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>NAR Logger</t>
+  </si>
+  <si>
+    <t>NAR02</t>
+  </si>
+  <si>
+    <t>NAR03</t>
+  </si>
+  <si>
+    <t>NAR01</t>
+  </si>
+  <si>
+    <t>Temp Log</t>
+  </si>
+  <si>
+    <t>19 Logger</t>
+  </si>
+  <si>
+    <t>NAR071718Z02</t>
+  </si>
+  <si>
+    <t>NAR032319Z01</t>
+  </si>
+  <si>
+    <t>NAR032319Z02</t>
+  </si>
+  <si>
+    <t>NAR032319Z03</t>
+  </si>
+  <si>
+    <t>NAR032319Z04</t>
+  </si>
+  <si>
+    <t>NAR061319Z01</t>
+  </si>
+  <si>
+    <t>NAR061319Z02</t>
+  </si>
+  <si>
+    <t>NAR061319Z03</t>
+  </si>
+  <si>
+    <t>NAR061319Z04</t>
+  </si>
+  <si>
+    <t>NAR112319Z01</t>
+  </si>
+  <si>
+    <t>NAR112319Z02</t>
+  </si>
+  <si>
+    <t>NAR112319Z03</t>
+  </si>
+  <si>
+    <t>NAR032319L</t>
+  </si>
+  <si>
+    <t>NAR061319L</t>
+  </si>
+  <si>
+    <t>NAR112319L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like there 's a Zooplankton length sheet mixed in with these </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,21 +548,40 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -434,10 +596,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,19 +889,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="2"/>
+    <col min="5" max="5" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,48 +946,553 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>20180717</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>1612</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>0.5</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>153</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20190717</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1628</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>153</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20190323</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1218</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>153</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20190323</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1723</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>153</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20190323</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>500</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20190323</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1711</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>150</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20190613</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1707</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>500</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20190613</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1647</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>153</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="2">
+        <v>100</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20190613</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1652</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>153</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="2">
+        <v>100</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20190613</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1657</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>153</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2">
+        <v>100</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20191123</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>153</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="2">
+        <v>50</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20191123</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>153</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="2">
+        <v>50</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20191123</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>153</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="2">
+        <v>50</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:F16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
